--- a/Meteorological Data/daily_data_rainfall.xlsx
+++ b/Meteorological Data/daily_data_rainfall.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkustconnect-my.sharepoint.com/personal/lcchanaj_connect_ust_hk/Documents/桌面/FYP Code/Meteorological Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_4CF5A5BD9A763E8E6E38F4F7495DCE3A8747025E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7C8CF60-F100-4B35-A353-B0D42F5AD41D}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_4CF5A5BD9A763E8E6E38F4F7495DCE3A8747025E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{109522E2-E3F7-476E-85FD-7533E5F90C0E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -405,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="G358" sqref="G358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
